--- a/OSSemTaskBLCL2O/Memória management.xlsx
+++ b/OSSemTaskBLCL2O/Memória management.xlsx
@@ -1,31 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gergő\Desktop\TGGit\BLCL2O_OSGyak\Féléves Beadandó\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hallgató\Desktop\TGgit\BLCL2O_OSGyak\OSSemTaskBLCL2O\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53402BFD-FEC5-46DA-AA53-FB00529F398A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="First Fit" sheetId="3" r:id="rId1"/>
     <sheet name="Worst Fit" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>First Fit</t>
   </si>
@@ -51,32 +63,59 @@
     <t>20, 180</t>
   </si>
   <si>
-    <t>30, 0</t>
-  </si>
-  <si>
-    <t>10, 20</t>
-  </si>
-  <si>
-    <t>100, 100</t>
-  </si>
-  <si>
-    <t>60, 40</t>
-  </si>
-  <si>
-    <t>30, 150</t>
-  </si>
-  <si>
-    <t>10, 140</t>
-  </si>
-  <si>
-    <t>100, 40</t>
+    <t>Nem sikerült</t>
+  </si>
+  <si>
+    <t>Blokk. Miatti tör.</t>
+  </si>
+  <si>
+    <t>Legkisebb eddigi foglalás</t>
+  </si>
+  <si>
+    <t>Maradék</t>
+  </si>
+  <si>
+    <t>Túl kicsi blokkok</t>
+  </si>
+  <si>
+    <t>Foglalható</t>
+  </si>
+  <si>
+    <t>32, 168</t>
+  </si>
+  <si>
+    <t>12, 18</t>
+  </si>
+  <si>
+    <t>100, 68</t>
+  </si>
+  <si>
+    <t>60, 8</t>
+  </si>
+  <si>
+    <t>Össz</t>
+  </si>
+  <si>
+    <t>Összes veszteség</t>
+  </si>
+  <si>
+    <t>0 igény</t>
+  </si>
+  <si>
+    <t>32, 148</t>
+  </si>
+  <si>
+    <t>12, 136</t>
+  </si>
+  <si>
+    <t>100, 36</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +154,14 @@
       <family val="1"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -136,7 +183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -196,19 +243,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -233,29 +328,63 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Százalék" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -532,262 +661,401 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="4" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="11.6640625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" style="20" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4">
         <v>50</v>
       </c>
-      <c r="C2" s="7">
-        <v>30</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
+        <v>30</v>
+      </c>
+      <c r="E2" s="5">
         <v>200</v>
       </c>
-      <c r="E2" s="7">
-        <v>16</v>
-      </c>
-      <c r="F2" s="8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="F2" s="5">
+        <v>16</v>
+      </c>
+      <c r="G2" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>20</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="3">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10">
-        <v>30</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
+        <v>30</v>
+      </c>
+      <c r="E3" s="8">
         <v>200</v>
       </c>
-      <c r="E3" s="10">
-        <v>16</v>
-      </c>
-      <c r="F3" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>30</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="F3" s="8">
+        <v>16</v>
+      </c>
+      <c r="G3" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3">
+        <v>32</v>
+      </c>
+      <c r="C4" s="27">
+        <v>30</v>
+      </c>
+      <c r="D4" s="8">
+        <v>30</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="8">
+        <v>16</v>
+      </c>
+      <c r="G4" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="27">
+        <v>30</v>
+      </c>
+      <c r="E5" s="27">
+        <v>168</v>
+      </c>
+      <c r="F5" s="8">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>100</v>
+      </c>
+      <c r="B6" s="3">
+        <v>100</v>
+      </c>
+      <c r="C6" s="8">
+        <v>18</v>
+      </c>
+      <c r="D6" s="27">
+        <v>30</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="8">
+        <v>16</v>
+      </c>
+      <c r="G6" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>60</v>
+      </c>
+      <c r="B7" s="3">
+        <v>60</v>
+      </c>
+      <c r="C7" s="8">
+        <v>18</v>
+      </c>
+      <c r="D7" s="27">
+        <v>30</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="8">
+        <v>16</v>
+      </c>
+      <c r="G7" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="12">
+        <v>18</v>
+      </c>
+      <c r="D8" s="12">
+        <v>30</v>
+      </c>
+      <c r="E8" s="12">
         <v>8</v>
       </c>
-      <c r="C4" s="10">
-        <v>30</v>
-      </c>
-      <c r="D4" s="20">
-        <v>200</v>
-      </c>
-      <c r="E4" s="10">
-        <v>16</v>
-      </c>
-      <c r="F4" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="F8" s="12">
+        <v>16</v>
+      </c>
+      <c r="G8" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B11" s="19"/>
+      <c r="C11" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="8">
+        <f>MOD(C8,4)</f>
+        <v>2</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" ref="D13:G13" si="0">MOD(D8,4)</f>
+        <v>2</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="F13" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H13" s="8">
+        <f>SUM(C13:G13)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>8</v>
+      </c>
+      <c r="F14" s="8">
+        <v>16</v>
+      </c>
+      <c r="G14" s="8">
+        <v>30</v>
+      </c>
+      <c r="H14" s="8">
+        <f>SUM(C14:G14)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10">
-        <v>200</v>
-      </c>
-      <c r="E5" s="10">
-        <v>16</v>
-      </c>
-      <c r="F5" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>100</v>
-      </c>
-      <c r="B6" s="10">
+      <c r="B16" s="25"/>
+      <c r="C16" s="8">
         <v>0</v>
       </c>
-      <c r="C6" s="10">
-        <v>20</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="10">
-        <v>16</v>
-      </c>
-      <c r="F6" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>60</v>
-      </c>
-      <c r="B7" s="10">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="8">
+        <v>2</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="8">
+        <v>2</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="8">
         <v>0</v>
       </c>
-      <c r="C7" s="10">
-        <v>20</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="10">
-        <v>16</v>
-      </c>
-      <c r="F7" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="23">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="8">
         <v>0</v>
       </c>
-      <c r="C8" s="23">
-        <v>20</v>
-      </c>
-      <c r="D8" s="23">
-        <v>40</v>
-      </c>
-      <c r="E8" s="23">
-        <v>16</v>
-      </c>
-      <c r="F8" s="23">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="11"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8">
+        <f>SUM(C16:C20)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8">
+        <f>SUM(H13:H21)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="30">
+        <f>H22/SUM(C2:H2)</f>
+        <v>0.19631901840490798</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
+  <mergeCells count="10">
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -795,263 +1063,203 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="4" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="12.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4">
         <v>50</v>
       </c>
-      <c r="C2" s="7">
-        <v>30</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
+        <v>30</v>
+      </c>
+      <c r="E2" s="5">
         <v>200</v>
       </c>
-      <c r="E2" s="7">
-        <v>16</v>
-      </c>
-      <c r="F2" s="8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="F2" s="5">
+        <v>16</v>
+      </c>
+      <c r="G2" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>20</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="3">
+        <v>20</v>
+      </c>
+      <c r="C3" s="8">
         <v>50</v>
       </c>
-      <c r="C3" s="10">
-        <v>30</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8">
+        <v>30</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="10">
-        <v>16</v>
-      </c>
-      <c r="F3" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>30</v>
-      </c>
-      <c r="B4" s="10">
+      <c r="F3" s="8">
+        <v>16</v>
+      </c>
+      <c r="G3" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3">
+        <v>32</v>
+      </c>
+      <c r="C4" s="8">
         <v>50</v>
       </c>
-      <c r="C4" s="10">
-        <v>30</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8">
+        <v>30</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="8">
+        <v>16</v>
+      </c>
+      <c r="G4" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3">
         <v>12</v>
       </c>
-      <c r="E4" s="10">
-        <v>16</v>
-      </c>
-      <c r="F4" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>10</v>
-      </c>
-      <c r="B5" s="10">
+      <c r="C5" s="8">
         <v>50</v>
       </c>
-      <c r="C5" s="10">
-        <v>30</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="10">
-        <v>16</v>
-      </c>
-      <c r="F5" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="D5" s="8">
+        <v>30</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="8">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>100</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="3">
+        <v>100</v>
+      </c>
+      <c r="C6" s="8">
         <v>50</v>
       </c>
-      <c r="C6" s="10">
-        <v>30</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="10">
-        <v>16</v>
-      </c>
-      <c r="F6" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="D6" s="8">
+        <v>30</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="8">
+        <v>16</v>
+      </c>
+      <c r="G6" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
         <v>60</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="10">
+        <v>60</v>
+      </c>
+      <c r="C7" s="11">
         <v>50</v>
       </c>
-      <c r="C7" s="13">
-        <v>30</v>
-      </c>
-      <c r="D7" s="13">
-        <v>40</v>
-      </c>
-      <c r="E7" s="13">
-        <v>16</v>
-      </c>
-      <c r="F7" s="13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="D7" s="11">
+        <v>30</v>
+      </c>
+      <c r="E7" s="11">
+        <v>36</v>
+      </c>
+      <c r="F7" s="11">
+        <v>16</v>
+      </c>
+      <c r="G7" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="17"/>
+      <c r="C8" s="12">
         <v>50</v>
       </c>
-      <c r="C8" s="14">
-        <v>30</v>
-      </c>
-      <c r="D8" s="15">
-        <v>40</v>
-      </c>
-      <c r="E8" s="14">
-        <v>16</v>
-      </c>
-      <c r="F8" s="14">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="D8" s="12">
+        <v>30</v>
+      </c>
+      <c r="E8" s="13">
+        <v>36</v>
+      </c>
+      <c r="F8" s="12">
+        <v>16</v>
+      </c>
+      <c r="G8" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C10" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
+  <mergeCells count="3">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OSSemTaskBLCL2O/Memória management.xlsx
+++ b/OSSemTaskBLCL2O/Memória management.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hallgató\Desktop\TGgit\BLCL2O_OSGyak\OSSemTaskBLCL2O\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gergő\Desktop\TGGit\BLCL2O_OSGyak\OSSemTaskBLCL2O\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53402BFD-FEC5-46DA-AA53-FB00529F398A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11430" yWindow="0" windowWidth="11715" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="First Fit" sheetId="3" r:id="rId1"/>
     <sheet name="Worst Fit" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>First Fit</t>
   </si>
@@ -109,12 +108,18 @@
   </si>
   <si>
     <t>100, 36</t>
+  </si>
+  <si>
+    <t>Blokkok miatti töredezettség</t>
+  </si>
+  <si>
+    <t>1 igény</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -301,7 +306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -337,37 +342,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -381,6 +359,38 @@
     <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -661,35 +671,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" style="20" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="11.7109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="15" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="17"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -711,7 +721,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>20</v>
       </c>
@@ -734,14 +744,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>30</v>
       </c>
       <c r="B4" s="3">
         <v>32</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="18">
         <v>30</v>
       </c>
       <c r="D4" s="8">
@@ -757,7 +767,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>10</v>
       </c>
@@ -767,10 +777,10 @@
       <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="27">
-        <v>30</v>
-      </c>
-      <c r="E5" s="27">
+      <c r="D5" s="18">
+        <v>30</v>
+      </c>
+      <c r="E5" s="18">
         <v>168</v>
       </c>
       <c r="F5" s="8">
@@ -780,7 +790,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>100</v>
       </c>
@@ -790,7 +800,7 @@
       <c r="C6" s="8">
         <v>18</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="18">
         <v>30</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -803,7 +813,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>60</v>
       </c>
@@ -813,7 +823,7 @@
       <c r="C7" s="8">
         <v>18</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="18">
         <v>30</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -826,11 +836,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="12">
         <v>18</v>
       </c>
@@ -847,40 +857,40 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="19"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="14">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="H12" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="23"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="8">
         <f>MOD(C8,4)</f>
         <v>2</v>
@@ -906,11 +916,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="8">
         <v>0</v>
       </c>
@@ -921,19 +931,19 @@
         <v>8</v>
       </c>
       <c r="F14" s="8">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G14" s="8">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H14" s="8">
         <f>SUM(C14:G14)</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -941,7 +951,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>9</v>
       </c>
@@ -955,9 +965,9 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="8">
         <v>2</v>
       </c>
@@ -967,9 +977,9 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="8">
         <v>2</v>
       </c>
@@ -979,9 +989,9 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="8">
         <v>0</v>
       </c>
@@ -991,9 +1001,9 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="8">
         <v>0</v>
       </c>
@@ -1003,9 +1013,9 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1016,9 +1026,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1026,17 +1036,17 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8">
         <f>SUM(H13:H21)</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="30">
+      <c r="B23" s="23"/>
+      <c r="C23" s="21">
         <f>H22/SUM(C2:H2)</f>
-        <v>0.19631901840490798</v>
+        <v>5.5214723926380369E-2</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1046,16 +1056,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1063,35 +1073,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="12.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="17"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1113,7 +1123,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>20</v>
       </c>
@@ -1136,7 +1146,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>30</v>
       </c>
@@ -1159,7 +1169,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>10</v>
       </c>
@@ -1172,7 +1182,7 @@
       <c r="D5" s="8">
         <v>30</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="8">
@@ -1182,7 +1192,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>100</v>
       </c>
@@ -1195,7 +1205,7 @@
       <c r="D6" s="8">
         <v>30</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="8">
@@ -1205,7 +1215,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>60</v>
       </c>
@@ -1228,11 +1238,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="12">
         <v>50</v>
       </c>
@@ -1249,17 +1259,210 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" s="14"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C10" s="14"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="31"/>
+      <c r="C11" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="8">
+        <f>MOD(C8,4)</f>
+        <v>2</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" ref="D13:G13" si="0">MOD(D8,4)</f>
+        <v>2</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H13" s="8">
+        <f>SUM(C13:G13)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
+        <f>SUM(C14:G14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="8">
+        <v>0</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="8">
+        <v>2</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="8">
+        <v>2</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="8">
+        <v>0</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8">
+        <f>SUM(C16:C20)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8">
+        <f>SUM(H13:H21)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="21">
+        <f>H22/SUM(C2:G2)</f>
+        <v>3.0674846625766871E-2</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
